--- a/etl_test/dev_gui.xlsx
+++ b/etl_test/dev_gui.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurence/workspace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessie/Box/jessie.yen (Box_Personal)/Work/02.Working On - CB/02-5.Project/Pipeline/ETL Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC145FA8-2523-F64C-94E8-EA02B8D8DC9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B7832-891E-0549-8A29-A10B7C78B0A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="1740" windowWidth="35860" windowHeight="17060" xr2:uid="{6A690D35-9DBD-5540-BC35-18737074755C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{6A690D35-9DBD-5540-BC35-18737074755C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -25,106 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Month</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Service Category</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUI No.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Issued Date</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debtor Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debtor Tax ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qty</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net Amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tax Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tax</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount(Tax)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark3</t>
-  </si>
-  <si>
-    <t>Remark4</t>
-  </si>
-  <si>
-    <t>Remark5</t>
-  </si>
-  <si>
-    <t>Remark6</t>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camapaign No.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Campaign Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Advertisor Tax ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t/>
@@ -157,86 +65,213 @@
   </si>
   <si>
     <t>gui-no-0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-no-0002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-no-0003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-no-0004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-no-0005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gui-no-0006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-campaign-name-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-campaign-name-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-campaign-name-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-campaign-name-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gui-campaign-name-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10009</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10006</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI Number</t>
+  </si>
+  <si>
+    <t>Item Seq</t>
+  </si>
+  <si>
+    <t>Issued Date</t>
+  </si>
+  <si>
+    <t>Debtor</t>
+  </si>
+  <si>
+    <t>Debtor Corp. Registration Number</t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>Ad Unit</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Issued Amount (Excl. VAT)</t>
+  </si>
+  <si>
+    <t>Tax Type</t>
+  </si>
+  <si>
+    <t>VAT (5%)</t>
+  </si>
+  <si>
+    <t>Issued Amount (Incl. VAT)</t>
+  </si>
+  <si>
+    <t>Agency's Contact Information</t>
+  </si>
+  <si>
+    <t>Ad product/Billing Information</t>
+  </si>
+  <si>
+    <t>Brand/Service</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Memo 1</t>
+  </si>
+  <si>
+    <t>Memo 2</t>
+  </si>
+  <si>
+    <t>Memo 3</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Campaign Number</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Ad Item</t>
+  </si>
+  <si>
+    <t>Payment Due Date</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>Corp Registration Number (Advertiser)</t>
+  </si>
+  <si>
+    <t>Advertiser</t>
+  </si>
+  <si>
+    <t>Corp.Registration Number (Agency)</t>
+  </si>
+  <si>
+    <t>Advertiser Type of Business</t>
+  </si>
+  <si>
+    <t>Deal Type</t>
+  </si>
+  <si>
+    <t>Invoice Period</t>
+  </si>
+  <si>
+    <t>Sales Person</t>
+  </si>
+  <si>
+    <t>Original Draft Number</t>
+  </si>
+  <si>
+    <t>10000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advertiser TAX ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TW] product A-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TW] product B-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TW] product C-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TW] product D-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[TW] product E-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="9">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,14 +318,8 @@
       <name val="新細明體"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +332,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -314,66 +348,22 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -381,32 +371,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,127 +713,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429F6C3-2505-7C4A-992F-F1CCEDEE6D01}">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="15" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="8"/>
+    <col min="7" max="7" width="30.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" style="8" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="8"/>
+    <col min="12" max="12" width="25.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="8"/>
+    <col min="16" max="16" width="22.5" style="8" customWidth="1"/>
+    <col min="17" max="17" width="77.83203125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" style="8" customWidth="1"/>
+    <col min="19" max="24" width="10.83203125" style="8"/>
+    <col min="25" max="25" width="23.1640625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="37.6640625" style="8" customWidth="1"/>
+    <col min="27" max="27" width="41.6640625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="28.83203125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="34.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36" style="8" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" style="8"/>
+    <col min="32" max="32" width="32.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" style="8"/>
+    <col min="34" max="34" width="26.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" style="8"/>
+    <col min="36" max="36" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.83203125" style="8"/>
+    <col min="38" max="38" width="20.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-    </row>
-    <row r="2" spans="1:34" ht="16">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="11"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="9"/>
+      <c r="P2" s="10"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -846,53 +896,55 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="X2" s="9"/>
+      <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="9"/>
+      <c r="AB2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
     </row>
-    <row r="3" spans="1:34" ht="16">
-      <c r="A3" s="8">
+    <row r="3" spans="1:38">
+      <c r="A3" s="3">
         <v>201905</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="K3" s="9"/>
+      <c r="L3" s="4">
         <v>1000000</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9">
+      <c r="M3" s="9"/>
+      <c r="N3" s="4">
         <v>100</v>
       </c>
-      <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="9"/>
+      <c r="P3" s="10"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -900,53 +952,65 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
-      <c r="X3" s="9">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="4">
         <v>20</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="AF3" s="10"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
     </row>
-    <row r="4" spans="1:34" ht="16">
-      <c r="A4" s="8">
+    <row r="4" spans="1:38">
+      <c r="A4" s="3">
         <v>201905</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="12"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="9">
+      <c r="K4" s="9"/>
+      <c r="L4" s="4">
         <v>1000000</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9">
+      <c r="M4" s="9"/>
+      <c r="N4" s="4">
         <v>200</v>
       </c>
-      <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -954,188 +1018,220 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-      <c r="X4" s="9">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="4">
         <v>30</v>
       </c>
-      <c r="Y4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+      <c r="AF4" s="10"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
     </row>
-    <row r="5" spans="1:34" ht="16">
-      <c r="A5" s="8">
+    <row r="5" spans="1:38">
+      <c r="A5" s="3">
         <v>201905</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="9"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="4">
         <v>300000</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9">
+      <c r="M5" s="12"/>
+      <c r="N5" s="4">
         <v>300</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="4">
         <v>40</v>
       </c>
-      <c r="Y5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
     </row>
-    <row r="6" spans="1:34" ht="16">
-      <c r="A6" s="8">
+    <row r="6" spans="1:38">
+      <c r="A6" s="3">
         <v>201905</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="4">
         <v>300000</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="4">
         <v>50</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
     </row>
-    <row r="7" spans="1:34" ht="16">
-      <c r="A7" s="8">
+    <row r="7" spans="1:38">
+      <c r="A7" s="3">
         <v>201905</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="9"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="4">
         <v>300000</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="4">
         <v>60</v>
       </c>
-      <c r="Y7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>8</v>
-      </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>